--- a/web/files/week_schedule/file.xlsx
+++ b/web/files/week_schedule/file.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>01.07.2019 - 07.07.2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+  <si>
+    <t>15.07.2019 - 21.07.2019</t>
   </si>
   <si>
     <t>РАСПИСАНИЕ НА НЕДЕЛЮ</t>
@@ -29,66 +29,44 @@
     <t>Большая сцена</t>
   </si>
   <si>
-    <t>Малая сцена</t>
-  </si>
-  <si>
-    <t>Детская гостинная 310</t>
-  </si>
-  <si>
-    <t>01.07.2019
+    <t>15.07.2019
 Понедельник</t>
   </si>
   <si>
-    <t>02.07.2019
+    <t xml:space="preserve">13:00 (Спектакль) "Маугли"
+</t>
+  </si>
+  <si>
+    <t>16.07.2019
 Вторник</t>
   </si>
   <si>
-    <t>03.07.2019
+    <t xml:space="preserve">12:05 (Спектакль) "Девочка, которая умела летать"
+</t>
+  </si>
+  <si>
+    <t>17.07.2019
 Среда</t>
   </si>
   <si>
-    <t xml:space="preserve">Банкет! 
+    <t xml:space="preserve">14:00 (Спектакль) "Тесто"
+15:00 (Спектакль) "Часы пробили 13 раз"
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Отмена! "Буратино"
-Банкет! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спектакль "12 месяцев"
-</t>
-  </si>
-  <si>
-    <t>04.07.2019
+    <t>18.07.2019
 Четверг</t>
   </si>
   <si>
-    <t xml:space="preserve">Спектакль "Огниво"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Спектакль "Отшельник и Роза"
-</t>
-  </si>
-  <si>
-    <t>05.07.2019
+    <t>19.07.2019
 Пятница</t>
   </si>
   <si>
-    <t xml:space="preserve">Отмена! "Буратино"
-</t>
-  </si>
-  <si>
-    <t>06.07.2019
+    <t>20.07.2019
 Суббота</t>
   </si>
   <si>
-    <t xml:space="preserve">Спектакль "Летучий корабль"
-</t>
-  </si>
-  <si>
-    <t>07.07.2019
+    <t>21.07.2019
 Воскресенье</t>
   </si>
 </sst>
@@ -119,7 +97,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border/>
     <border>
       <left style="medium">
@@ -130,15 +108,70 @@
       </top>
     </border>
     <border>
-      <right style="medium">
-        <color rgb="000000"/>
-      </right>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="000000"/>
       </left>
       <bottom style="medium">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
+      <bottom style="thin">
         <color rgb="000000"/>
       </bottom>
     </border>
@@ -146,21 +179,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,107 +509,91 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="40" customWidth="true" style="0"/>
-    <col min="3" max="3" width="40" customWidth="true" style="0"/>
-    <col min="4" max="4" width="40" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:2" customHeight="1" ht="30">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" customHeight="1" ht="30">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:2" customHeight="1" ht="30">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" customHeight="1" ht="30">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" customHeight="1" ht="30">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" customHeight="1" ht="30">
+      <c r="A7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:2" customHeight="1" ht="30">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" customHeight="1" ht="30">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" customHeight="1" ht="30">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" customHeight="1" ht="30">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" customHeight="1" ht="30">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" customHeight="1" ht="30">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" customHeight="1" ht="30">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" customHeight="1" ht="30">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="B11" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/files/week_schedule/file.xlsx
+++ b/web/files/week_schedule/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>15.07.2019 - 21.07.2019</t>
   </si>
@@ -27,13 +27,27 @@
   </si>
   <si>
     <t>Большая сцена</t>
+  </si>
+  <si>
+    <t>Малая сцена</t>
+  </si>
+  <si>
+    <t>Детская гостинная 310</t>
   </si>
   <si>
     <t>15.07.2019
 Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00 (Спектакль) "Маугли"
+    <t xml:space="preserve">13:00 15:00 (Спектакль) "Маугли"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 (Спектакль) "Принц и нищий"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:00 (Спектакль) "Японская сказка. Меч самурая"
 </t>
   </si>
   <si>
@@ -45,6 +59,11 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">12:10 (Спектакль) "История семьи"
+14:00 (Спектакль) "Огниво"
+</t>
+  </si>
+  <si>
     <t>17.07.2019
 Среда</t>
   </si>
@@ -54,8 +73,21 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">14:00 (Репетиция) "Летучий корабль"
+15:00 (Репетиция) "Тесто"
+</t>
+  </si>
+  <si>
     <t>18.07.2019
 Четверг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:10 (Спектакль) "История семьи"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00 (Спектакль) "Огниво"
+</t>
   </si>
   <si>
     <t>19.07.2019
@@ -97,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border/>
     <border>
       <left style="medium">
@@ -111,6 +143,16 @@
       <left style="medium">
         <color rgb="000000"/>
       </left>
+      <bottom style="medium">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="000000"/>
+      </top>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="000000"/>
       </bottom>
@@ -179,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -196,18 +238,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -509,91 +557,131 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="40" customWidth="true" style="0"/>
+    <col min="3" max="3" width="40" customWidth="true" style="0"/>
+    <col min="4" max="4" width="40" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="3"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" customHeight="1" ht="30">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customHeight="1" ht="30">
-      <c r="A6" s="8" t="s">
+    <row r="5" spans="1:4" customHeight="1" ht="30">
+      <c r="A5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" customHeight="1" ht="30">
-      <c r="A7" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" customHeight="1" ht="30">
-      <c r="A8" s="8" t="s">
+    <row r="6" spans="1:4" customHeight="1" ht="30">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" customHeight="1" ht="30">
-      <c r="A9" s="8" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" customHeight="1" ht="30">
-      <c r="A10" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="11" spans="1:2" customHeight="1" ht="30">
-      <c r="A11" s="8" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" customHeight="1" ht="30">
+      <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" customHeight="1" ht="30">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" customHeight="1" ht="30">
+      <c r="A9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" customHeight="1" ht="30">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" customHeight="1" ht="30">
+      <c r="A11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/files/week_schedule/file.xlsx
+++ b/web/files/week_schedule/file.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>15.07.2019 - 21.07.2019</t>
   </si>
@@ -39,55 +39,46 @@
 Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">13:00 15:00 (Спектакль) "Маугли"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00 (Спектакль) "Принц и нищий"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:00 (Спектакль) "Японская сказка. Меч самурая"
-</t>
+    <t>13:00 15:00 (Спектакль) Маугли</t>
+  </si>
+  <si>
+    <t>14:00 (Спектакль) Принц и нищий</t>
+  </si>
+  <si>
+    <t>12:00 (Спектакль) Японская сказка. Меч самурая</t>
   </si>
   <si>
     <t>16.07.2019
 Вторник</t>
   </si>
   <si>
-    <t xml:space="preserve">12:05 (Спектакль) "Девочка, которая умела летать"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:10 (Спектакль) "История семьи"
-14:00 (Спектакль) "Огниво"
-</t>
+    <t>12:05 (Спектакль) Девочка, которая умела летать</t>
+  </si>
+  <si>
+    <t>12:10 (Спектакль) История семьи</t>
+  </si>
+  <si>
+    <t>15:50 (Репетиция) Аленький цветочек</t>
+  </si>
+  <si>
+    <t>14:00 (Спектакль) Огниво</t>
   </si>
   <si>
     <t>17.07.2019
 Среда</t>
   </si>
   <si>
-    <t xml:space="preserve">14:00 (Спектакль) "Тесто"
-15:00 (Спектакль) "Часы пробили 13 раз"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00 (Репетиция) "Летучий корабль"
-15:00 (Репетиция) "Тесто"
-</t>
+    <t>14:00 (Спектакль) Тесто</t>
+  </si>
+  <si>
+    <t>14:00 (Репетиция) Аленький цветочек</t>
+  </si>
+  <si>
+    <t>15:00 (Спектакль) Часы пробили 13 раз</t>
   </si>
   <si>
     <t>18.07.2019
 Четверг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:10 (Спектакль) "История семьи"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14:00 (Спектакль) "Огниво"
-</t>
   </si>
   <si>
     <t>19.07.2019
@@ -107,9 +98,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -129,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border/>
     <border>
       <left style="medium">
@@ -202,6 +211,11 @@
       <right style="thin">
         <color rgb="000000"/>
       </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="000000"/>
       </bottom>
@@ -213,6 +227,11 @@
       <right style="thin">
         <color rgb="000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
       <bottom style="thin">
         <color rgb="000000"/>
       </bottom>
@@ -221,14 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -243,20 +262,29 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +585,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -602,86 +630,116 @@
       </c>
     </row>
     <row r="5" spans="1:4" customHeight="1" ht="30">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" customHeight="1" ht="30">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" customHeight="1" ht="30">
-      <c r="A7" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" customHeight="1" ht="30">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" customHeight="1" ht="30">
-      <c r="A8" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" customHeight="1" ht="30">
-      <c r="A9" s="10" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" customHeight="1" ht="30">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" customHeight="1" ht="30">
-      <c r="A10" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" customHeight="1" ht="30">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" customHeight="1" ht="30">
-      <c r="A11" s="10" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" customHeight="1" ht="30">
+      <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" customHeight="1" ht="30">
+      <c r="A14" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A5:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A11"/>
+    <mergeCell ref="A14:A14"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/files/week_schedule/file.xlsx
+++ b/web/files/week_schedule/file.xlsx
@@ -98,7 +98,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -126,6 +126,15 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -211,8 +220,14 @@
       <right style="thin">
         <color rgb="000000"/>
       </right>
-    </border>
-    <border>
+      <bottom style="thin">
+        <color rgb="000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="000000"/>
+      </left>
       <right style="thin">
         <color rgb="000000"/>
       </right>
@@ -227,9 +242,6 @@
       <right style="thin">
         <color rgb="000000"/>
       </right>
-      <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
     </border>
     <border>
       <bottom style="thin">
@@ -240,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -271,19 +283,28 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -633,13 +654,13 @@
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -647,88 +668,88 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="10" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4" customHeight="1" ht="30">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" customHeight="1" ht="30">
       <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4" customHeight="1" ht="30">
       <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" customHeight="1" ht="30">
       <c r="A13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" customHeight="1" ht="30">
       <c r="A14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/web/files/week_schedule/file.xlsx
+++ b/web/files/week_schedule/file.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
-  <si>
-    <t>15.07.2019 - 21.07.2019</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>05.08.2019 - 11.08.2019</t>
   </si>
   <si>
     <t>РАСПИСАНИЕ НА НЕДЕЛЮ</t>
@@ -32,65 +32,576 @@
     <t>Малая сцена</t>
   </si>
   <si>
-    <t>Детская гостинная 310</t>
-  </si>
-  <si>
-    <t>15.07.2019
+    <t>05.08.2019
 Понедельник</t>
   </si>
   <si>
-    <t>13:00 15:00 (Спектакль) Маугли</t>
-  </si>
-  <si>
-    <t>14:00 (Спектакль) Принц и нищий</t>
-  </si>
-  <si>
-    <t>12:00 (Спектакль) Японская сказка. Меч самурая</t>
-  </si>
-  <si>
-    <t>16.07.2019
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">10:21- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Сирано де Бержерак</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">11:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Морфий</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Рогов)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ</t>
+    </r>
+  </si>
+  <si>
+    <t>06.08.2019
 Вторник</t>
   </si>
   <si>
-    <t>12:05 (Спектакль) Девочка, которая умела летать</t>
-  </si>
-  <si>
-    <t>12:10 (Спектакль) История семьи</t>
-  </si>
-  <si>
-    <t>15:50 (Репетиция) Аленький цветочек</t>
-  </si>
-  <si>
-    <t>14:00 (Спектакль) Огниво</t>
-  </si>
-  <si>
-    <t>17.07.2019
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">19:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Спектакль) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Два мужа по цене одного</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (оптимист.театр). </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ</t>
+    </r>
+  </si>
+  <si>
+    <t>07.08.2019
 Среда</t>
   </si>
   <si>
-    <t>14:00 (Спектакль) Тесто</t>
-  </si>
-  <si>
-    <t>14:00 (Репетиция) Аленький цветочек</t>
-  </si>
-  <si>
-    <t>15:00 (Спектакль) Часы пробили 13 раз</t>
-  </si>
-  <si>
-    <t>18.07.2019
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">19:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Спектакль) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Слишком женатый таксист</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (оптимист.театр). </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ, СВЕТ, ЗВУК, РЕКВ</t>
+    </r>
+  </si>
+  <si>
+    <t>08.08.2019
 Четверг</t>
   </si>
   <si>
-    <t>19.07.2019
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">19:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Спектакль) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">N 13</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (Стёпин). </t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">14:00- </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">19:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Спектакль) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Муж напрокат</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve"> (оптимист.театр). </t>
+    </r>
+  </si>
+  <si>
+    <t>09.08.2019
 Пятница</t>
   </si>
   <si>
-    <t>20.07.2019
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">10:21- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Сирано де Бержерак</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> (Текст примечания)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">12:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Морфий</t>
+    </r>
+  </si>
+  <si>
+    <t>10.08.2019
 Суббота</t>
   </si>
   <si>
-    <t>21.07.2019
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">10:21- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Сирано де Бержерак</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> (Текст примечания)</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Дмитриева, Ермохин)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">17:25- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Сирано де Бержерак</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <t xml:space="preserve">Будрина, Бучинская)</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">19:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Спектакль) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Срочно выйду замуж</t>
+    </r>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">АКТЕРЫ</t>
+    </r>
+  </si>
+  <si>
+    <t>11.08.2019
 Воскресенье</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">10:00- </t>
+    </r>
+    <r>
+      <t xml:space="preserve">(Репетиция!) </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Принцесса и Пьер</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -98,13 +609,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -252,14 +772,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -274,37 +794,28 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -606,10 +1117,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -617,26 +1128,23 @@
     <col min="1" max="1" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="40" customWidth="true" style="0"/>
     <col min="3" max="3" width="40" customWidth="true" style="0"/>
-    <col min="4" max="4" width="40" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -646,121 +1154,719 @@
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3" customHeight="1" ht="30">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">10:21- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Сирано де Бержерак</t>
+          </r>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">11:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Морфий</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> (</t>
+          </r>
+          <r>
+            <t xml:space="preserve">Рогов)</t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ</t>
+          </r>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:4" customHeight="1" ht="30">
-      <c r="A5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="10" t="s">
+    <row r="6" spans="1:3" customHeight="1" ht="30">
+      <c r="A6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
+      <c r="B6" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">10:21- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Сирано де Бержерак</t>
+          </r>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">19:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Спектакль) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Два мужа по цене одного</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve"> (оптимист.театр). </t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ</t>
+          </r>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:4" customHeight="1" ht="30">
-      <c r="A6" s="11" t="s">
+    <row r="7" spans="1:3" customHeight="1" ht="30">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">19:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Спектакль) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Слишком женатый таксист</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve"> (оптимист.театр). </t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ, СВЕТ, ЗВУК, РЕКВ</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:3" customHeight="1" ht="30">
+      <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>13</v>
+      <c r="B8" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">19:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Спектакль) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">N 13</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve"> (Стёпин). </t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ</t>
+          </r>
+        </is>
+      </c>
+      <c r="C8" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">14:00- </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">19:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Спектакль) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Муж напрокат</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve"> (оптимист.театр). </t>
+          </r>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="13"/>
-      <c r="C7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13"/>
+    <row r="9" spans="1:3" customHeight="1" ht="30">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">10:21- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Сирано де Бержерак</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> (Текст примечания)</t>
+          </r>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">12:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Морфий</t>
+          </r>
+        </is>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="14"/>
+    <row r="10" spans="1:3" customHeight="1" ht="30">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">10:21- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Сирано де Бержерак</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> (Текст примечания)</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> (</t>
+          </r>
+          <r>
+            <t xml:space="preserve">Дмитриева, Ермохин)</t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ</t>
+          </r>
+        </is>
+      </c>
+      <c r="C10" s="13" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">12:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Морфий</t>
+          </r>
+        </is>
+      </c>
     </row>
-    <row r="9" spans="1:4" customHeight="1" ht="30">
-      <c r="A9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="13"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">17:25- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Сирано де Бержерак</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> (</t>
+          </r>
+          <r>
+            <t xml:space="preserve">Будрина, Бучинская)</t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ</t>
+          </r>
+        </is>
+      </c>
+      <c r="C11" s="10" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">19:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Спектакль) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Срочно выйду замуж</t>
+          </r>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">АКТЕРЫ</t>
+          </r>
+        </is>
+      </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-    </row>
-    <row r="11" spans="1:4" customHeight="1" ht="30">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:4" customHeight="1" ht="30">
-      <c r="A12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" customHeight="1" ht="30">
-      <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" customHeight="1" ht="30">
-      <c r="A14" s="11" t="s">
+    <row r="12" spans="1:3" customHeight="1" ht="30">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="17"/>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">10:21- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Сирано де Бержерак</t>
+          </r>
+        </is>
+      </c>
+      <c r="C12" s="10" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">10:00- </t>
+          </r>
+          <r>
+            <t xml:space="preserve">(Репетиция!) </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Принцесса и Пьер</t>
+          </r>
+        </is>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A11"/>
-    <mergeCell ref="A14:A14"/>
+    <mergeCell ref="A6:A6"/>
+    <mergeCell ref="A7:A7"/>
+    <mergeCell ref="A8:A8"/>
+    <mergeCell ref="A9:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
